--- a/productos.xlsx
+++ b/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268AC5FC-9E2C-AD4D-9E94-042FABFD4F24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B340170F-D200-B042-A85A-2013D5FF12DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="2300" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1550,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B340170F-D200-B042-A85A-2013D5FF12DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D39505-43A4-A34F-BD84-15DCF1EFF2C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="2300" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="314">
   <si>
     <t>Apple - iPhone 8+ 128</t>
   </si>
@@ -914,13 +914,55 @@
     <t>acer-n517</t>
   </si>
   <si>
-    <t>ne-bl-ro-ve-li-az-am-</t>
-  </si>
-  <si>
-    <t>ne-pl-do-ve-</t>
-  </si>
-  <si>
-    <t>ne-bl-ro-</t>
+    <t>producto_200458</t>
+  </si>
+  <si>
+    <t>Havit - Silla Gaming</t>
+  </si>
+  <si>
+    <t>ne-az-ro</t>
+  </si>
+  <si>
+    <t>producto_200523</t>
+  </si>
+  <si>
+    <t>Epson - Tinta para Impresora</t>
+  </si>
+  <si>
+    <t>ne-am-ci-ma</t>
+  </si>
+  <si>
+    <t>producto_200527</t>
+  </si>
+  <si>
+    <t>producto_200718</t>
+  </si>
+  <si>
+    <t>ne-pl-do</t>
+  </si>
+  <si>
+    <t>ne-bl-ro-ve-li-az-am</t>
+  </si>
+  <si>
+    <t>ne-pl-do-ve</t>
+  </si>
+  <si>
+    <t>ne-bl-ro</t>
+  </si>
+  <si>
+    <t>ne-bl-az-ro</t>
+  </si>
+  <si>
+    <t>ne-bl-az</t>
+  </si>
+  <si>
+    <t>ne-az</t>
+  </si>
+  <si>
+    <t>ne-az-ve</t>
+  </si>
+  <si>
+    <t>ne-bl-ve</t>
   </si>
 </sst>
 </file>
@@ -989,13 +1031,9 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1008,6 +1046,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1548,1272 +1592,1407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="79.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="79.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="6" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="5"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="5" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="5" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="4" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D73" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D74" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D75" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D76" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D77" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D78" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="D119" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C80" t="s">
-        <v>194</v>
-      </c>
-      <c r="D80" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-    </row>
-    <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-    </row>
-    <row r="105" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>237</v>
+    <row r="120" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2897,7 +3076,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D5" t="s">
@@ -2905,7 +3084,7 @@
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D6" t="s">

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D39505-43A4-A34F-BD84-15DCF1EFF2C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BF4626-53C3-D74F-A8FB-F51D962E3822}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="2300" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -920,49 +920,49 @@
     <t>Havit - Silla Gaming</t>
   </si>
   <si>
-    <t>ne-az-ro</t>
-  </si>
-  <si>
     <t>producto_200523</t>
   </si>
   <si>
     <t>Epson - Tinta para Impresora</t>
   </si>
   <si>
-    <t>ne-am-ci-ma</t>
-  </si>
-  <si>
     <t>producto_200527</t>
   </si>
   <si>
     <t>producto_200718</t>
   </si>
   <si>
-    <t>ne-pl-do</t>
-  </si>
-  <si>
-    <t>ne-bl-ro-ve-li-az-am</t>
-  </si>
-  <si>
-    <t>ne-pl-do-ve</t>
-  </si>
-  <si>
-    <t>ne-bl-ro</t>
-  </si>
-  <si>
-    <t>ne-bl-az-ro</t>
-  </si>
-  <si>
-    <t>ne-bl-az</t>
-  </si>
-  <si>
-    <t>ne-az</t>
-  </si>
-  <si>
-    <t>ne-az-ve</t>
-  </si>
-  <si>
-    <t>ne-bl-ve</t>
+    <t>ne-pl-do-</t>
+  </si>
+  <si>
+    <t>ne-bl-ro-ve-li-az-am-</t>
+  </si>
+  <si>
+    <t>ne-pl-do-ve-</t>
+  </si>
+  <si>
+    <t>ne-bl-ro-</t>
+  </si>
+  <si>
+    <t>ne-az-ro-</t>
+  </si>
+  <si>
+    <t>ne-bl-az-ro-</t>
+  </si>
+  <si>
+    <t>ne-bl-az-</t>
+  </si>
+  <si>
+    <t>ne-az-</t>
+  </si>
+  <si>
+    <t>ne-az-ve-</t>
+  </si>
+  <si>
+    <t>ne-bl-ve-</t>
+  </si>
+  <si>
+    <t>ne-am-ci-ma-</t>
   </si>
 </sst>
 </file>
@@ -1594,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2357,7 +2357,7 @@
         <v>49</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2371,7 +2371,7 @@
         <v>50</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2385,7 +2385,7 @@
         <v>50</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2399,7 +2399,7 @@
         <v>51</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2413,7 +2413,7 @@
         <v>51</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2427,7 +2427,7 @@
         <v>52</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2441,7 +2441,7 @@
         <v>52</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2455,7 +2455,7 @@
         <v>194</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2469,7 +2469,7 @@
         <v>194</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2488,7 +2488,7 @@
         <v>53</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2502,7 +2502,7 @@
         <v>53</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2516,7 +2516,7 @@
         <v>54</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2530,7 +2530,7 @@
         <v>228</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2544,7 +2544,7 @@
         <v>55</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2558,7 +2558,7 @@
         <v>229</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2572,7 +2572,7 @@
         <v>229</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2586,7 +2586,7 @@
         <v>230</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2600,7 +2600,7 @@
         <v>230</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2614,7 +2614,7 @@
         <v>56</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2628,7 +2628,7 @@
         <v>57</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2691,7 +2691,7 @@
         <v>238</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2705,7 +2705,7 @@
         <v>195</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2719,7 +2719,7 @@
         <v>195</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2733,7 +2733,7 @@
         <v>231</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2747,7 +2747,7 @@
         <v>62</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2761,7 +2761,7 @@
         <v>232</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2780,7 +2780,7 @@
         <v>63</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2794,7 +2794,7 @@
         <v>64</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2808,7 +2808,7 @@
         <v>64</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2822,7 +2822,7 @@
         <v>65</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2836,7 +2836,7 @@
         <v>65</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2850,7 +2850,7 @@
         <v>233</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2864,7 +2864,7 @@
         <v>233</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2878,7 +2878,7 @@
         <v>234</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2892,7 +2892,7 @@
         <v>234</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2906,7 +2906,7 @@
         <v>235</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2920,7 +2920,7 @@
         <v>235</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2934,7 +2934,7 @@
         <v>236</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2948,7 +2948,7 @@
         <v>237</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2959,40 +2959,40 @@
         <v>298</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>301</v>
-      </c>
       <c r="D120" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BF4626-53C3-D74F-A8FB-F51D962E3822}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A1F2AA-8653-D449-95D3-522D59DAC1C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="2300" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="316">
   <si>
     <t>Apple - iPhone 8+ 128</t>
   </si>
@@ -963,6 +963,12 @@
   </si>
   <si>
     <t>ne-am-ci-ma-</t>
+  </si>
+  <si>
+    <t>Marvo - Silla Gaming</t>
+  </si>
+  <si>
+    <t>producto_200729</t>
   </si>
 </sst>
 </file>
@@ -1592,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119:XFD119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2964,18 +2970,18 @@
     </row>
     <row r="120" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>300</v>
@@ -2986,12 +2992,23 @@
     </row>
     <row r="122" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>300</v>
       </c>
       <c r="D122" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D123" s="7" t="s">
         <v>313</v>
       </c>
     </row>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A1F2AA-8653-D449-95D3-522D59DAC1C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75778C93-1398-6747-93E2-B4C6F3C6A0D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="2300" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,52 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="B125" authorId="0" shapeId="0" xr:uid="{13EDD7D2-9B40-AA45-A230-73C78679F727}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ESta LInea no se procesa. Solo hasta la anterior. Colocar porductossobre esta
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="316">
   <si>
     <t>Apple - iPhone 8+ 128</t>
   </si>
@@ -975,7 +1019,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1002,8 +1046,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1022,6 +1079,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1035,7 +1098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1058,6 +1121,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1597,11 +1666,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:XFD119"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2957,31 +3026,20 @@
         <v>309</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
     <row r="120" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>300</v>
@@ -2992,7 +3050,7 @@
     </row>
     <row r="122" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>300</v>
@@ -3003,14 +3061,33 @@
     </row>
     <row r="123" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>313</v>
-      </c>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="9"/>
+      <c r="B125" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3075,6 +3152,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="62" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75778C93-1398-6747-93E2-B4C6F3C6A0D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5499E2E2-2CF5-CB43-98F5-5DC9BAD7D65D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="2300" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="318">
   <si>
     <t>Apple - iPhone 8+ 128</t>
   </si>
@@ -967,9 +967,6 @@
     <t>producto_200523</t>
   </si>
   <si>
-    <t>Epson - Tinta para Impresora</t>
-  </si>
-  <si>
     <t>producto_200527</t>
   </si>
   <si>
@@ -1013,6 +1010,15 @@
   </si>
   <si>
     <t>producto_200729</t>
+  </si>
+  <si>
+    <t>Epson - Tinta T504 para Impresora</t>
+  </si>
+  <si>
+    <t>Epson - Tinta T664 para Impresora</t>
+  </si>
+  <si>
+    <t>Epson - Tinta T544 para Impresora</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1676,7 @@
   <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2432,7 +2438,7 @@
         <v>49</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2446,7 +2452,7 @@
         <v>50</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2460,7 +2466,7 @@
         <v>50</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2474,7 +2480,7 @@
         <v>51</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2488,7 +2494,7 @@
         <v>51</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2502,7 +2508,7 @@
         <v>52</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2516,7 +2522,7 @@
         <v>52</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2530,7 +2536,7 @@
         <v>194</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2544,7 +2550,7 @@
         <v>194</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2563,7 +2569,7 @@
         <v>53</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2577,7 +2583,7 @@
         <v>53</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2591,7 +2597,7 @@
         <v>54</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2605,7 +2611,7 @@
         <v>228</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2619,7 +2625,7 @@
         <v>55</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2633,7 +2639,7 @@
         <v>229</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2647,7 +2653,7 @@
         <v>229</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2661,7 +2667,7 @@
         <v>230</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2675,7 +2681,7 @@
         <v>230</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2689,7 +2695,7 @@
         <v>56</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2703,7 +2709,7 @@
         <v>57</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2766,7 +2772,7 @@
         <v>238</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2780,7 +2786,7 @@
         <v>195</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2794,7 +2800,7 @@
         <v>195</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2808,7 +2814,7 @@
         <v>231</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2822,7 +2828,7 @@
         <v>62</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2836,7 +2842,7 @@
         <v>232</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2855,7 +2861,7 @@
         <v>63</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2869,7 +2875,7 @@
         <v>64</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2883,7 +2889,7 @@
         <v>64</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2897,7 +2903,7 @@
         <v>65</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2911,7 +2917,7 @@
         <v>65</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2925,7 +2931,7 @@
         <v>233</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2939,7 +2945,7 @@
         <v>233</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2953,7 +2959,7 @@
         <v>234</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2967,7 +2973,7 @@
         <v>234</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2981,7 +2987,7 @@
         <v>235</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2995,7 +3001,7 @@
         <v>235</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3009,7 +3015,7 @@
         <v>236</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3023,7 +3029,7 @@
         <v>237</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3031,43 +3037,43 @@
         <v>299</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3078,7 +3084,7 @@
         <v>298</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5499E2E2-2CF5-CB43-98F5-5DC9BAD7D65D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D258C2EC-696E-F241-A138-A9D232518B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="2300" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B125" authorId="0" shapeId="0" xr:uid="{13EDD7D2-9B40-AA45-A230-73C78679F727}">
+    <comment ref="B126" authorId="0" shapeId="0" xr:uid="{13EDD7D2-9B40-AA45-A230-73C78679F727}">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="322">
   <si>
     <t>Apple - iPhone 8+ 128</t>
   </si>
@@ -1019,6 +1019,18 @@
   </si>
   <si>
     <t>Epson - Tinta T544 para Impresora</t>
+  </si>
+  <si>
+    <t>ne-bl-az-ve-</t>
+  </si>
+  <si>
+    <t>producto_100199</t>
+  </si>
+  <si>
+    <t>Huawei - Y5 2019 32GB</t>
+  </si>
+  <si>
+    <t>huawei-y52019</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1150,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1673,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2763,13 +2785,13 @@
     </row>
     <row r="98" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>147</v>
+        <v>319</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>15</v>
+        <v>320</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>238</v>
+        <v>321</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>309</v>
@@ -2777,26 +2799,26 @@
     </row>
     <row r="99" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D100" s="7" t="s">
@@ -2805,250 +2827,253 @@
     </row>
     <row r="101" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D102" s="7" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+    <row r="103" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D103" s="7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
+    <row r="104" spans="1:4" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C104" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D104" s="8" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-    </row>
     <row r="105" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>306</v>
-      </c>
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
     </row>
     <row r="106" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>233</v>
+      <c r="A110" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>233</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>234</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>235</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B118" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C118" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D117" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>312</v>
+      <c r="D118" s="7" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>312</v>
@@ -3056,10 +3081,10 @@
     </row>
     <row r="122" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>312</v>
@@ -3067,95 +3092,109 @@
     </row>
     <row r="123" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="9"/>
-      <c r="B125" s="10" t="s">
+      <c r="A125" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="9"/>
+      <c r="B126" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A30 A7">
-    <cfRule type="duplicateValues" dxfId="19" priority="35" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="36" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
+    <cfRule type="duplicateValues" dxfId="19" priority="23" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
     <cfRule type="duplicateValues" dxfId="18" priority="22" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
+  <conditionalFormatting sqref="A26">
     <cfRule type="duplicateValues" dxfId="17" priority="21" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
+  <conditionalFormatting sqref="A13">
     <cfRule type="duplicateValues" dxfId="16" priority="20" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="15" priority="19" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="duplicateValues" dxfId="15" priority="17" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
+  <conditionalFormatting sqref="A29">
     <cfRule type="duplicateValues" dxfId="14" priority="16" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A16">
     <cfRule type="duplicateValues" dxfId="13" priority="15" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="12" priority="14" stopIfTrue="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A27 A8 A25 A6">
-    <cfRule type="duplicateValues" dxfId="11" priority="60" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="61" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="10" priority="12" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
+    <cfRule type="duplicateValues" dxfId="10" priority="11" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
     <cfRule type="duplicateValues" dxfId="9" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
+  <conditionalFormatting sqref="A64">
     <cfRule type="duplicateValues" dxfId="8" priority="9" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
+  <conditionalFormatting sqref="A70">
     <cfRule type="duplicateValues" dxfId="7" priority="8" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
+  <conditionalFormatting sqref="A55">
     <cfRule type="duplicateValues" dxfId="6" priority="7" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
+  <conditionalFormatting sqref="A68">
     <cfRule type="duplicateValues" dxfId="5" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="4" priority="5" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="duplicateValues" dxfId="4" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
+  <conditionalFormatting sqref="A34">
     <cfRule type="duplicateValues" dxfId="3" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
+  <conditionalFormatting sqref="A35">
     <cfRule type="duplicateValues" dxfId="2" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="1" priority="1" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A80:A97 A1:A5 A9:A12 A31:A33 A14:A15 A17:A21 A23 A44:A47 A61:A63 A59 A65 A71:A78 A56:A57 A69 A49:A54 A36:A42 A99:A118">
+    <cfRule type="duplicateValues" dxfId="1" priority="63" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80:A117 A1:A5 A9:A12 A31:A33 A14:A15 A17:A21 A23 A44:A47 A61:A63 A59 A65 A71:A78 A56:A57 A69 A49:A54 A36:A42">
-    <cfRule type="duplicateValues" dxfId="0" priority="62" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A98">
+    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D258C2EC-696E-F241-A138-A9D232518B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC24B23-5712-0A41-834E-5C2622DA44E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="2300" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B126" authorId="0" shapeId="0" xr:uid="{13EDD7D2-9B40-AA45-A230-73C78679F727}">
+    <comment ref="B128" authorId="0" shapeId="0" xr:uid="{13EDD7D2-9B40-AA45-A230-73C78679F727}">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="327">
   <si>
     <t>Apple - iPhone 8+ 128</t>
   </si>
@@ -1031,6 +1031,21 @@
   </si>
   <si>
     <t>huawei-y52019</t>
+  </si>
+  <si>
+    <t>Dell - Inspiron 15,6" Touch Laptop - Intel Core i7 - Memoria 16Gb - SSD 512GB - Video MX 2GB</t>
+  </si>
+  <si>
+    <t>dell-I5501</t>
+  </si>
+  <si>
+    <t>producto_100240</t>
+  </si>
+  <si>
+    <t>producto_100235</t>
+  </si>
+  <si>
+    <t>Dell - Inspiron 15,6" Touch Laptop - Intel Core i3 - Memoria 8GB - HD 1TB + 128GB SSD</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1165,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1695,10 +1720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1805,21 +1830,21 @@
     </row>
     <row r="10" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>325</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>326</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>66</v>
@@ -1827,312 +1852,312 @@
     </row>
     <row r="12" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>252</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>253</v>
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>104</v>
+        <v>252</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>254</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>260</v>
+        <v>105</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>261</v>
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>106</v>
+        <v>324</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>322</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>107</v>
+        <v>260</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>259</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>264</v>
+        <v>110</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>265</v>
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>248</v>
+        <v>263</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>189</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>180</v>
+        <v>250</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>166</v>
+        <v>255</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>41</v>
+        <v>256</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>73</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>180</v>
+        <v>164</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>181</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>287</v>
+        <v>112</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>289</v>
+        <v>42</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>176</v>
+        <v>290</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>170</v>
+        <v>292</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>170</v>
@@ -2140,196 +2165,196 @@
     </row>
     <row r="41" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>246</v>
+        <v>175</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>117</v>
+        <v>245</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>93</v>
+        <v>247</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>284</v>
+        <v>118</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>286</v>
+        <v>35</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>121</v>
+        <v>284</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>84</v>
+        <v>285</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="55" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>278</v>
+        <v>160</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>279</v>
+        <v>158</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>125</v>
+        <v>278</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>266</v>
+        <v>124</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>271</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>46</v>
+        <v>267</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>76</v>
@@ -2337,111 +2362,117 @@
     </row>
     <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>127</v>
+        <v>266</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>79</v>
+        <v>272</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>78</v>
+        <v>269</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>273</v>
+        <v>129</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>295</v>
+        <v>274</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>296</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>130</v>
+        <v>281</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="70" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>275</v>
+        <v>130</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>276</v>
+        <v>47</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2451,83 +2482,71 @@
     </row>
     <row r="72" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>131</v>
+        <v>275</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>303</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>304</v>
@@ -2535,88 +2554,88 @@
     </row>
     <row r="78" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D81" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
+    <row r="82" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C82" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D82" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
     <row r="83" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>306</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>7</v>
+        <v>294</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>306</v>
@@ -2624,27 +2643,27 @@
     </row>
     <row r="85" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>306</v>
@@ -2652,41 +2671,41 @@
     </row>
     <row r="87" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>229</v>
+      <c r="A88" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>307</v>
@@ -2694,249 +2713,249 @@
     </row>
     <row r="90" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>308</v>
+      <c r="A91" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>308</v>
+      <c r="A92" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
+      <c r="A97" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="98" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>319</v>
+        <v>146</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>320</v>
+        <v>14</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>309</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>309</v>
-      </c>
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
     </row>
     <row r="100" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D102" s="7" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+    <row r="103" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D103" s="7" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+    <row r="104" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C104" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D104" s="7" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+    <row r="105" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D105" s="7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
+    <row r="106" spans="1:4" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D106" s="8" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-    </row>
-    <row r="106" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
     <row r="107" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
     </row>
     <row r="108" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>318</v>
@@ -2944,41 +2963,41 @@
     </row>
     <row r="110" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>233</v>
+      <c r="A111" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>233</v>
+      <c r="A112" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>318</v>
@@ -2986,13 +3005,13 @@
     </row>
     <row r="113" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>318</v>
@@ -3000,13 +3019,13 @@
     </row>
     <row r="114" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>318</v>
@@ -3014,13 +3033,13 @@
     </row>
     <row r="115" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>318</v>
@@ -3028,13 +3047,13 @@
     </row>
     <row r="116" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>318</v>
@@ -3042,60 +3061,66 @@
     </row>
     <row r="117" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B120" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C120" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D120" s="7" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>312</v>
@@ -3103,97 +3128,122 @@
     </row>
     <row r="124" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B127" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D127" s="7" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="9"/>
-      <c r="B126" s="10" t="s">
+    <row r="128" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="9"/>
+      <c r="B128" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A30 A7">
-    <cfRule type="duplicateValues" dxfId="20" priority="36" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A32 A7">
+    <cfRule type="duplicateValues" dxfId="21" priority="37" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
+  <conditionalFormatting sqref="A45">
+    <cfRule type="duplicateValues" dxfId="20" priority="24" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
     <cfRule type="duplicateValues" dxfId="19" priority="23" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
+  <conditionalFormatting sqref="A28">
     <cfRule type="duplicateValues" dxfId="18" priority="22" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
+  <conditionalFormatting sqref="A14">
     <cfRule type="duplicateValues" dxfId="17" priority="21" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="16" priority="20" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="duplicateValues" dxfId="16" priority="18" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
+  <conditionalFormatting sqref="A31">
     <cfRule type="duplicateValues" dxfId="15" priority="17" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A18">
     <cfRule type="duplicateValues" dxfId="14" priority="16" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="13" priority="15" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A29 A8 A27 A6">
+    <cfRule type="duplicateValues" dxfId="13" priority="62" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27 A8 A25 A6">
-    <cfRule type="duplicateValues" dxfId="12" priority="61" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="duplicateValues" dxfId="12" priority="14" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="11" priority="13" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="duplicateValues" dxfId="11" priority="12" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
     <cfRule type="duplicateValues" dxfId="10" priority="11" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
+  <conditionalFormatting sqref="A66">
     <cfRule type="duplicateValues" dxfId="9" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
+  <conditionalFormatting sqref="A72">
     <cfRule type="duplicateValues" dxfId="8" priority="9" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
+  <conditionalFormatting sqref="A57">
     <cfRule type="duplicateValues" dxfId="7" priority="8" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
+  <conditionalFormatting sqref="A70">
     <cfRule type="duplicateValues" dxfId="6" priority="7" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="5" priority="6" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="duplicateValues" dxfId="5" priority="5" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
+  <conditionalFormatting sqref="A36">
     <cfRule type="duplicateValues" dxfId="4" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
+  <conditionalFormatting sqref="A37">
     <cfRule type="duplicateValues" dxfId="3" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="2" priority="2" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A82:A99 A1:A5 A9:A13 A33:A35 A19:A23 A25 A46:A49 A63:A65 A61 A67 A73:A80 A58:A59 A71 A51:A56 A38:A44 A101:A120 A15:A16">
+    <cfRule type="duplicateValues" dxfId="2" priority="64" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80:A97 A1:A5 A9:A12 A31:A33 A14:A15 A17:A21 A23 A44:A47 A61:A63 A59 A65 A71:A78 A56:A57 A69 A49:A54 A36:A42 A99:A118">
-    <cfRule type="duplicateValues" dxfId="1" priority="63" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A100">
+    <cfRule type="duplicateValues" dxfId="1" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
+  <conditionalFormatting sqref="A17">
     <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC24B23-5712-0A41-834E-5C2622DA44E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F924F216-3A97-9C45-A1AB-1358210E0A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="2300" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="302">
   <si>
     <t>Apple - iPhone 8+ 128</t>
   </si>
@@ -133,84 +133,18 @@
     <t>Xiaomi - Redmi Note 8 Pro 128GB</t>
   </si>
   <si>
-    <t>Apple - Macbook Air 13.3" Laptop - Intel Core i5 - Memoria 8GB - SSD 256GB</t>
-  </si>
-  <si>
-    <t>Apple - Macbook Pro 13 Laptop - Intel Core i5 - Memoria 8GB - SSD 256GB</t>
-  </si>
-  <si>
-    <t>Dell - Inspiron 14" Laptop - Intel Core i3 - Memoria 4GB - HD 1TB</t>
-  </si>
-  <si>
-    <t>Dell - Inspiron 14" Laptop - Intel Core i5 - Memoria 4GB - SSD 128GB</t>
-  </si>
-  <si>
-    <t>Dell - Inspiron 14" Laptop - Intel Core i5 - Memoria 12Gb - HD 1TB + SSD 128Gb</t>
-  </si>
-  <si>
     <t>Dell - Inspiron 14" Laptop - Intel Core i5 - Memoria 8Gb - SSD 256Gb</t>
   </si>
   <si>
-    <t>Dell - Inspiron 15,6" Laptop - Intel Core i7 - Memoria 8Gb - SSD 256GB - Video MX 4GB</t>
-  </si>
-  <si>
-    <t>Dell - G3 15,6" Gaming Laptop - Intel Core i7 - Memoria 8Gb - HD 1TB + SSD 128GB - Video GTX 6GB</t>
-  </si>
-  <si>
-    <t>Dell - G3 15,6" Gaming Laptop - Intel Core i7 - Memoria 16Gb - SSD 512GB - Video GTX 6GB</t>
-  </si>
-  <si>
     <t>Dell - G5 15,6" Gaming Laptop - Intel Core i7 - Memoria 16Gb - SSD 512GB - Video RTX 6GB</t>
   </si>
   <si>
-    <t>Dell - G7 17,3" Gaming Laptop - Intel Core i7 - Memoria 16Gb - HD 1TB + SSD 256GB - Video RTX 6GB</t>
-  </si>
-  <si>
-    <t>Lenovo - Legion 15,6" Gaming Laptop - Intel Core i7 - Memoria 16Gb - HD 1TB + SSD 512GB - Video GTX 6GB</t>
-  </si>
-  <si>
-    <t>Lenovo - Legion 15,6" Gaming Laptop - Intel Core i7 - Memoria 16Gb - SSD 512GB - Video RTX 6GB</t>
-  </si>
-  <si>
     <t>Asus - ROG 15,6" Gaming Laptop - Intel Core i7 - Memoria 8Gb - SSD 512GB - Video GTX 4GB</t>
   </si>
   <si>
-    <t>Asus - ROG 17,3" Gaming Laptop - Intel Core i7 - Memoria 16Gb - SSD 512GB - Video GTX 6GB</t>
-  </si>
-  <si>
-    <t>Asus - Zephyrus 15,6" Gaming Laptop - Intel Core i7 - Memoria 16Gb - SSD 1TB - Video RTX 6GB</t>
-  </si>
-  <si>
     <t>Asus - ROG Strix Scar III 17,3" Gaming Laptop - Intel Core i7 - Memoria 16Gb - SSD 1TB - Video RTX 8GB</t>
   </si>
   <si>
-    <t>MSI - 15,6" Gaming Laptop - Intel Core i7 - Memoria 32Gb - SSD 512GB - Video RTX  6GB</t>
-  </si>
-  <si>
-    <t>Dell - Vostro 15,6" Laptop - Intel Core i5 - Memoria 4Gb - HD 1TB - Video AMD 2GB</t>
-  </si>
-  <si>
-    <t>Lenovo - Ideapad 15,6" Laptop - Intel Core i5 - Memoria 8Gb - HD 1TB - VIDEO MX 2GB</t>
-  </si>
-  <si>
-    <t>Lenovo - Ideapad 14" Laptop - Intel Core i7 - Memoria 8Gb - HD 1TB</t>
-  </si>
-  <si>
-    <t>Lenovo - Ideapad 15,6" Laptop - Intel Core i7 - Memoria 8Gb - HD 1TB</t>
-  </si>
-  <si>
-    <t>Asus - VivoBook 15,6" Laptop - Intel Core i5 - Memoria 4Gb - SSD 512GB - Video MX 2GB</t>
-  </si>
-  <si>
-    <t>Asus - TUF 15,6" Gaming Laptop - Intel Core i7 - Memoria 8Gb - SSD 512GB - Video GTX 4GB</t>
-  </si>
-  <si>
-    <t>MSI - 15,6" Gaming Laptop - Intel Core i7 - Memoria 8Gb - SSD 512GB - Video RTX 6GB</t>
-  </si>
-  <si>
-    <t>Acer - Predator Gaming Laptop - Intel Core i7 - Memoria 16GB - SSD 256GB - Video GTX 6GB</t>
-  </si>
-  <si>
     <t>macbook-air</t>
   </si>
   <si>
@@ -265,42 +199,18 @@
     <t>xiaomi-note8pro</t>
   </si>
   <si>
-    <t>dell-i3493</t>
-  </si>
-  <si>
     <t>dell-i3493s</t>
   </si>
   <si>
     <t>dell-i5593</t>
   </si>
   <si>
-    <t>dell-g3</t>
-  </si>
-  <si>
-    <t>alienware-15r4</t>
-  </si>
-  <si>
-    <t>dell-g5</t>
-  </si>
-  <si>
-    <t>dell-g7</t>
-  </si>
-  <si>
     <t>lenovo-s340</t>
   </si>
   <si>
-    <t>lenovo-y545</t>
-  </si>
-  <si>
-    <t>lenovo-y740</t>
-  </si>
-  <si>
     <t>msi-gf65</t>
   </si>
   <si>
-    <t>msi-gf75</t>
-  </si>
-  <si>
     <t>msi-gs65</t>
   </si>
   <si>
@@ -310,27 +220,12 @@
     <t>asus-g531</t>
   </si>
   <si>
-    <t>asus-505gt</t>
-  </si>
-  <si>
-    <t>Asus - ROG Strix Scar II 17,3" Gaming Laptop - Intel Core i7 - Memoria 16Gb - SSD 512GB - Video RTX 8GB</t>
-  </si>
-  <si>
     <t>asus-g731gw</t>
   </si>
   <si>
-    <t>asus-gu502gv</t>
-  </si>
-  <si>
     <t>asus-x509</t>
   </si>
   <si>
-    <t>asus-g731gt</t>
-  </si>
-  <si>
-    <t>asus-gl704gw</t>
-  </si>
-  <si>
     <t>FIN</t>
   </si>
   <si>
@@ -343,18 +238,6 @@
     <t>Agregar Fila al final</t>
   </si>
   <si>
-    <t>dell-v3590</t>
-  </si>
-  <si>
-    <t>asus-x512</t>
-  </si>
-  <si>
-    <t>asus-gl703gs</t>
-  </si>
-  <si>
-    <t>msi-ge75</t>
-  </si>
-  <si>
     <t>producto_100002</t>
   </si>
   <si>
@@ -367,81 +250,30 @@
     <t>producto_100006</t>
   </si>
   <si>
-    <t>producto_100007</t>
-  </si>
-  <si>
-    <t>producto_100008</t>
-  </si>
-  <si>
-    <t>producto_100009</t>
-  </si>
-  <si>
     <t>producto_100010</t>
   </si>
   <si>
-    <t>producto_100011</t>
-  </si>
-  <si>
     <t>producto_100015</t>
   </si>
   <si>
     <t>producto_100016</t>
   </si>
   <si>
-    <t>producto_100017</t>
-  </si>
-  <si>
-    <t>producto_100018</t>
-  </si>
-  <si>
     <t>producto_100020</t>
   </si>
   <si>
-    <t>producto_100022</t>
-  </si>
-  <si>
     <t>producto_100028</t>
   </si>
   <si>
-    <t>producto_100030</t>
-  </si>
-  <si>
-    <t>producto_100031</t>
-  </si>
-  <si>
-    <t>producto_100036</t>
-  </si>
-  <si>
-    <t>producto_100038</t>
-  </si>
-  <si>
     <t>producto_100043</t>
   </si>
   <si>
-    <t>producto_100044</t>
-  </si>
-  <si>
     <t>producto_100046</t>
   </si>
   <si>
-    <t>producto_100047</t>
-  </si>
-  <si>
-    <t>producto_100050</t>
-  </si>
-  <si>
-    <t>producto_100051</t>
-  </si>
-  <si>
-    <t>producto_100052</t>
-  </si>
-  <si>
     <t>producto_100053</t>
   </si>
   <si>
-    <t>producto_100054</t>
-  </si>
-  <si>
     <t>producto_100055</t>
   </si>
   <si>
@@ -457,9 +289,6 @@
     <t>producto_100059</t>
   </si>
   <si>
-    <t>producto_100060</t>
-  </si>
-  <si>
     <t>producto_100120</t>
   </si>
   <si>
@@ -535,66 +364,21 @@
     <t>msi-gl75</t>
   </si>
   <si>
-    <t>Asus - VivoBook 15,6" Laptop - Intel Core i7 - Memoria 12Gb - SSD 256GB</t>
-  </si>
-  <si>
-    <t>MSI - 17,3" Gaming Laptop - Intel Core i7 - Memoria 16Gb - HD 1TB - SSD 512GB - Video RTX 6GB</t>
-  </si>
-  <si>
-    <t>Asus - ROG 17,3" Gaming Laptop - Intel Core i7 - Memoria 16Gb - HD 1TB - SSD 256GB - Video GTX 6GB (Obsequio Mouse Asus Gladius II)</t>
-  </si>
-  <si>
-    <t>producto_100189</t>
-  </si>
-  <si>
-    <t>producto_100190</t>
-  </si>
-  <si>
     <t>producto_100193</t>
   </si>
   <si>
-    <t>producto_100194</t>
-  </si>
-  <si>
-    <t>dell-v3490</t>
-  </si>
-  <si>
     <t>Lenovo - Ideapad 13,3" Laptop - Intel Core i5 - Memoria 8Gb - SSD 256GB</t>
   </si>
   <si>
-    <t>Dell - Vostro 14" Laptop - Intel Core i3 - Memoria 4Gb - HD 1TB</t>
-  </si>
-  <si>
     <t>lenovo-s340-13</t>
   </si>
   <si>
-    <t>producto_100195</t>
-  </si>
-  <si>
-    <t>dell-i3582</t>
-  </si>
-  <si>
-    <t>Dell - Inspiron 15,6" Laptop - Intel Celeron - Memoria 4Gb - HD 500GB</t>
-  </si>
-  <si>
     <t>lenovo-a340</t>
   </si>
   <si>
     <t>lenovo-a540</t>
   </si>
   <si>
-    <t>AIO - Celeron</t>
-  </si>
-  <si>
-    <t>AIO - i3</t>
-  </si>
-  <si>
-    <t>AIO - i5</t>
-  </si>
-  <si>
-    <t>AIO - i7</t>
-  </si>
-  <si>
     <t>producto_100064</t>
   </si>
   <si>
@@ -607,36 +391,6 @@
     <t>producto_100067</t>
   </si>
   <si>
-    <t>lenovo-s145-14</t>
-  </si>
-  <si>
-    <t>lenovo-s145-15</t>
-  </si>
-  <si>
-    <t>producto_100196</t>
-  </si>
-  <si>
-    <t>producto_100197</t>
-  </si>
-  <si>
-    <t>producto_100198</t>
-  </si>
-  <si>
-    <t>Dell - Inspiron 14" Laptop - Intel Core i3 - Memoria 4Gb - SSD 128GB</t>
-  </si>
-  <si>
-    <t>Lenovo - Ideapad 15,6" Laptop - Intel Core i3 - Memoria 8Gb - SSD 256GB</t>
-  </si>
-  <si>
-    <t>Lenovo - Ideapad 15,6" Laptop - Intel Celeron - Memoria 4Gb - HD 1TB</t>
-  </si>
-  <si>
-    <t>lenovo-v15</t>
-  </si>
-  <si>
-    <t>lenovo-330</t>
-  </si>
-  <si>
     <t>Apple - iPhone SE 2 64GB</t>
   </si>
   <si>
@@ -790,33 +544,12 @@
     <t>producto_100218</t>
   </si>
   <si>
-    <t>Apple - Macbook Air 13.3" Laptop - Intel Core i3 - Memoria 8GB - SSD 128GB</t>
-  </si>
-  <si>
     <t>macbook-pro2019-13</t>
   </si>
   <si>
-    <t>producto_100220</t>
-  </si>
-  <si>
     <t>macbook-pro2020-13</t>
   </si>
   <si>
-    <t>producto_100039</t>
-  </si>
-  <si>
-    <t>asus-x543</t>
-  </si>
-  <si>
-    <t>Asus - VivoBook 15,6" Laptop - Intel Celeron - Memoria 4Gb - HD 1TB</t>
-  </si>
-  <si>
-    <t>lenovo-s145b-14</t>
-  </si>
-  <si>
-    <t>Lenovo - Ideapad 14" Laptop - Intel Celeron - Memoria 4Gb - HD 1TB</t>
-  </si>
-  <si>
     <t>producto_100221</t>
   </si>
   <si>
@@ -832,33 +565,9 @@
     <t>Dell - Inspiron 15,6" Laptop - Intel Core i5 - Memoria 8Gb - SSD 512Gb</t>
   </si>
   <si>
-    <t>producto_100223</t>
-  </si>
-  <si>
-    <t>producto_100224</t>
-  </si>
-  <si>
-    <t>Lenovo - Ideapad 14" Laptop - Intel Core i5 - Memoria 4Gb - HD 1TB</t>
-  </si>
-  <si>
-    <t>Lenovo - Ideapad 15,6" Laptop - Intel Core i5 - Memoria 4Gb - HD 1TB</t>
-  </si>
-  <si>
-    <t>Dell - Inspiron 15,6" Laptop - Intel Core i7 - Memoria 16Gb - SSD 240GB - HD 1TB - Video MX 4GB</t>
-  </si>
-  <si>
     <t>producto_100225</t>
   </si>
   <si>
-    <t>dell-i3593s</t>
-  </si>
-  <si>
-    <t>Alienware - 15,6" Gaming Laptop - Intel Core i9 - Memoria 16Gb - SSD 512GB - Video GTX 8GB</t>
-  </si>
-  <si>
-    <t>Alienware - 15,6" Gaming Laptop - Intel Core i7 - Memoria 16Gb - SSD 512GB - Video RTX 6GB</t>
-  </si>
-  <si>
     <t>producto_100226</t>
   </si>
   <si>
@@ -868,30 +577,12 @@
     <t>producto_100227</t>
   </si>
   <si>
-    <t>MSI - 15,6" Gaming Laptop - Intel Core i7 - Memoria 8Gb - SSD 512GB - Video GTX 6GB</t>
-  </si>
-  <si>
-    <t>MSI - 17,3" Gaming Laptop - Intel Core i7 - Memoria 8Gb - SSD 512GB - Video GTX 6GB</t>
-  </si>
-  <si>
-    <t>MSI - 15,6" Gaming Laptop - Intel Core i7 - Memoria 16Gb - HD 1TB + SSD 512GB - Video RTX 6GB</t>
-  </si>
-  <si>
-    <t>MSI - 17,3" Gaming Laptop - Intel Core i7 - Memoria 16Gb - HD 1TB - SSD 256GB - Video RTX 6GB</t>
-  </si>
-  <si>
     <t>msi-gp65</t>
   </si>
   <si>
-    <t>MSI - 15,6" Gaming Laptop - Intel Core i7 - Memoria 16Gb - SSD 512GB - Video GTX 6GB</t>
-  </si>
-  <si>
     <t>producto_100228</t>
   </si>
   <si>
-    <t>MSI - 15,6" Gaming Laptop - Intel Core i7 - Memoria 16Gb - SSD 512GB - Video RTX 8GB</t>
-  </si>
-  <si>
     <t>producto_100219</t>
   </si>
   <si>
@@ -904,12 +595,6 @@
     <t>producto_100229</t>
   </si>
   <si>
-    <t>MSI - 17,3" Gaming Laptop - Intel Core i5 - Memoria 8Gb - SSD 512GB - Video GTX 4GB</t>
-  </si>
-  <si>
-    <t>acer-ph300</t>
-  </si>
-  <si>
     <t>producto_100230</t>
   </si>
   <si>
@@ -943,9 +628,6 @@
     <t>lenovo-5</t>
   </si>
   <si>
-    <t>Lenovo - Legion 15,6" Gaming Laptop - Intel Core i7 - Memoria 8Gb - SSD 512GB - Video GTX 6GB</t>
-  </si>
-  <si>
     <t>Huawei - Y9 Prime 64GB</t>
   </si>
   <si>
@@ -1042,10 +724,253 @@
     <t>producto_100240</t>
   </si>
   <si>
-    <t>producto_100235</t>
-  </si>
-  <si>
-    <t>Dell - Inspiron 15,6" Touch Laptop - Intel Core i3 - Memoria 8GB - HD 1TB + 128GB SSD</t>
+    <t>producto_100267</t>
+  </si>
+  <si>
+    <t>Acer - Aspire 3 15,6" Laptop - Intel Core i5 - Memoria 8Gb - SSD 256GB</t>
+  </si>
+  <si>
+    <t>acer-a315</t>
+  </si>
+  <si>
+    <t>Acer - Nitro 5 15,6" Gaming Laptop - Intel Core i5 - Memoria 8GB - SSD 256GB - Video GTX 4GB</t>
+  </si>
+  <si>
+    <t>producto_100247</t>
+  </si>
+  <si>
+    <t>Acer - Predator Helios 300 15,6" Gaming Laptop - Intel Core i7 - Memoria 16GB - SSD 512GB - Video RTX 6GB</t>
+  </si>
+  <si>
+    <t>acer-ph315</t>
+  </si>
+  <si>
+    <t>Alienware - M15R3 15,6" Gaming Laptop - Intel Core i7 - Memoria 16Gb - SSD 1TB - Video RTX 8GB</t>
+  </si>
+  <si>
+    <t>producto_100062</t>
+  </si>
+  <si>
+    <t>Apple - iMac 21,5" - Intel Core i5 - Memoria 8Gb - HD 1TB - Video Radeon Pro 4Gb</t>
+  </si>
+  <si>
+    <t>apple-imac</t>
+  </si>
+  <si>
+    <t>Apple - Macbook Air 2020 13.3" Laptop - Intel Core i3 - Memoria 8GB - SSD 256GB</t>
+  </si>
+  <si>
+    <t>Apple - Macbook Air 2020 13.3" Laptop - Intel Core i5 - Memoria 8GB - SSD 256GB</t>
+  </si>
+  <si>
+    <t>Apple - Macbook Pro 2019 13.3" Laptop - Intel Core i5 - Memoria 8GB - SSD 256GB</t>
+  </si>
+  <si>
+    <t>Apple - Macbook Pro 2020 13.3" Laptop - Intel Core i5 - Memoria 8GB - SSD 256GB</t>
+  </si>
+  <si>
+    <t>producto_100244</t>
+  </si>
+  <si>
+    <t>asus-g512li</t>
+  </si>
+  <si>
+    <t>producto_100245</t>
+  </si>
+  <si>
+    <t>Asus - ROG Zephyrus 15,6" Gaming Laptop - Intel Core i7 - Memoria 16Gb - SSD 512GB - Video GTX 6GB</t>
+  </si>
+  <si>
+    <t>asus-gu502lu</t>
+  </si>
+  <si>
+    <t>producto_100264</t>
+  </si>
+  <si>
+    <t>Asus - VivoBook 15,6" Laptop - AMD Ryzen 5 - Memoria 8GB - SSD 128GB - HD 1TB</t>
+  </si>
+  <si>
+    <t>asus-f512</t>
+  </si>
+  <si>
+    <t>producto_100256</t>
+  </si>
+  <si>
+    <t>Asus - VivoBook 15,6" Laptop - Intel Core i3 - Memoria 8Gb - SSD 256GB</t>
+  </si>
+  <si>
+    <t>Asus - VivoBook 15,6" Laptop - Intel Core i5 - Memoria 8Gb - SSD 512GB - Video MX 2GB</t>
+  </si>
+  <si>
+    <t>producto_100255</t>
+  </si>
+  <si>
+    <t>Asus - VivoBook 15,6" Laptop - Intel Core i7 - Memoria 8Gb - SSD 256GB</t>
+  </si>
+  <si>
+    <t>producto_100242</t>
+  </si>
+  <si>
+    <t>Asus - ZenBook 4" Laptop - AMD Ryzen 5 - Memoria 8Gb - SSD 256GB</t>
+  </si>
+  <si>
+    <t>asus-m509dj</t>
+  </si>
+  <si>
+    <t>Dell - G5 15,6" Gaming Laptop - Intel Core i7 - Memoria 16Gb - SSD 512GB - Video GTX 6GB</t>
+  </si>
+  <si>
+    <t>dell-g5se</t>
+  </si>
+  <si>
+    <t>producto_100252</t>
+  </si>
+  <si>
+    <t>Dell - Inspiron 15,6" Laptop - Intel Core i3 - Memoria 4Gb - SSD 128GB</t>
+  </si>
+  <si>
+    <t>producto_100250</t>
+  </si>
+  <si>
+    <t>Dell - Inspiron 15,6" Laptop - Intel Core i5 - Memoria 8Gb - HD 1TB</t>
+  </si>
+  <si>
+    <t>producto_100063</t>
+  </si>
+  <si>
+    <t>Dell - Inspiron 15,6" Laptop - Intel Core i5 - Memoria 8Gb - SSD 256GB</t>
+  </si>
+  <si>
+    <t>dell-i3593</t>
+  </si>
+  <si>
+    <t>Dell - Inspiron 15,6" Laptop - Intel Core i7 - Memoria 16Gb - HD 2TB - Video MX 4GB</t>
+  </si>
+  <si>
+    <t>dell-I3593</t>
+  </si>
+  <si>
+    <t>Dell - Inspiron 15,6" Laptop - Intel Core i7 - Memoria 8Gb - HD 1TB + SSD 256GB - Video MX 4GB</t>
+  </si>
+  <si>
+    <t>producto_100263</t>
+  </si>
+  <si>
+    <t>Dell - Latitud 14" Laptop - Intel Core i3 - Memoria 4GB - HD 1TB</t>
+  </si>
+  <si>
+    <t>dell-i3410</t>
+  </si>
+  <si>
+    <t>Lenovo - 21.5" AIO - AMD A6 - Memoria 4Gb - HD 1TB</t>
+  </si>
+  <si>
+    <t>Lenovo - 21.5" AIO - Intel Core i3 - Memoria 4Gb - HD 1TB</t>
+  </si>
+  <si>
+    <t>Lenovo - 23,8" AIO - Intel Core i5 - Memoria 4Gb - HD 1TB</t>
+  </si>
+  <si>
+    <t>Lenovo - 23,8" AIO - Intel Core i7 - Memoria 8Gb - HD 1TB</t>
+  </si>
+  <si>
+    <t>producto_100265</t>
+  </si>
+  <si>
+    <t>Lenovo - Ideapad 1 14" Laptop - Intel Pentium - Memoria 4Gb - SSD 128GB</t>
+  </si>
+  <si>
+    <t>lenovo-1</t>
+  </si>
+  <si>
+    <t>producto_100258</t>
+  </si>
+  <si>
+    <t>Lenovo - Ideapad 15,6" Laptop - Intel Core i5 - Memoria 12Gb - HD 1TB</t>
+  </si>
+  <si>
+    <t>Lenovo - Ideapad 15,6" Laptop - Intel Core i5 - Memoria 8Gb - HD 1TB - Video MX 2GB</t>
+  </si>
+  <si>
+    <t>producto_100246</t>
+  </si>
+  <si>
+    <t>Lenovo - Ideapad 3 15,6" Gaming Laptop - Intel Core i5 - Memoria 8Gb - HD 1TB - SSD 256GB - Video GTX 4GB</t>
+  </si>
+  <si>
+    <t>Lenovo - Ideapad 3 15,6" Laptop - Intel Core i3 - Memoria 8Gb - SSD 256GB</t>
+  </si>
+  <si>
+    <t>producto_100260</t>
+  </si>
+  <si>
+    <t>Lenovo - Ideapad 3 17" Laptop - AMD Ryzen 7 - Memoria 12Gb - HD 1TB - SSD 128GB</t>
+  </si>
+  <si>
+    <t>producto_100266</t>
+  </si>
+  <si>
+    <t>Lenovo - Ideapad S145 15,6" Laptop - Intel Core i3 - Memoria 4Gb - SSD 128GB</t>
+  </si>
+  <si>
+    <t>lenovo-s145</t>
+  </si>
+  <si>
+    <t>Lenovo - Legion 5 15,6" Gaming Laptop - Intel Core i7 - Memoria 8Gb - SSD 512GB - Video GTX 6GB</t>
+  </si>
+  <si>
+    <t>producto_100261</t>
+  </si>
+  <si>
+    <t>Lenovo - ThinkPad 14" Laptop - Intel Core i5 - Memoria 4Gb - HD 1TB</t>
+  </si>
+  <si>
+    <t>lenovo-e14</t>
+  </si>
+  <si>
+    <t>producto_100257</t>
+  </si>
+  <si>
+    <t>Lenovo - ThinkPad 15,6" Laptop - Intel Core i5 - Memoria 4Gb - HD 1TB</t>
+  </si>
+  <si>
+    <t>lenovo-e15</t>
+  </si>
+  <si>
+    <t>MSI - GF65 15,6" Gaming Laptop - Intel Core i7 - Memoria 8Gb - SSD 512GB - Video GTX 6GB</t>
+  </si>
+  <si>
+    <t>MSI - GF65 15,6" Gaming Laptop - Intel Core i7 - Memoria 8Gb - SSD 512GB - Video RTX 6GB</t>
+  </si>
+  <si>
+    <t>MSI - GF75 17,3" Gaming Laptop - Intel Core i5 - Memoria 8Gb - SSD 512GB - Video GTX 4GB</t>
+  </si>
+  <si>
+    <t>MSI - GL65 15,6" Gaming Laptop - Intel Core i7 - Memoria 16Gb - HD 1TB - SSD 512GB - Video RTX 6GB</t>
+  </si>
+  <si>
+    <t>MSI - GL65 15,6" Gaming Laptop - Intel Core i7 - Memoria 16Gb - SSD 512GB - Video RTX 8GB</t>
+  </si>
+  <si>
+    <t>producto_100259</t>
+  </si>
+  <si>
+    <t>MSI - GL75 17,3" Gaming Laptop - Intel Core i7 - Memoria 16Gb - HD 1TB - SSD 256GB - Video GTX 6GB</t>
+  </si>
+  <si>
+    <t>MSI - GL75 17,3" Gaming Laptop - Intel Core i7 - Memoria 16Gb - HD 1TB - SSD 256GB - Video RTX 6GB</t>
+  </si>
+  <si>
+    <t>producto_100243</t>
+  </si>
+  <si>
+    <t>MSI - GL75 17,3" Gaming Laptop - Intel Core i7 - Memoria 16Gb - HD 1TB - SSD 512GB - Video RTX 8GB</t>
+  </si>
+  <si>
+    <t>MSI - GP65 15,6" Gaming Laptop - Intel Core i7 - Memoria 16Gb - SSD 512GB - Video GTX 6GB</t>
+  </si>
+  <si>
+    <t>MSI - GS65 15,6" Gaming Laptop - Intel Core i7 - Memoria 32Gb - SSD 512GB - Video RTX 6GB</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1144,9 +1069,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1165,137 +1087,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1720,722 +1512,698 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="79.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="7"/>
+    <col min="3" max="3" width="19.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>223</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>244</v>
+        <v>224</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>325</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>326</v>
+        <v>233</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>253</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>253</v>
+        <v>237</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>239</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>68</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>324</v>
+        <v>242</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>322</v>
+        <v>243</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>323</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>260</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>261</v>
+        <v>244</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>71</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>72</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>265</v>
+        <v>253</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>248</v>
+        <v>257</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>189</v>
+        <v>165</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>251</v>
+        <v>259</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>183</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>188</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>180</v>
+        <v>218</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>181</v>
+        <v>262</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>73</v>
+        <v>265</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>180</v>
+        <v>266</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>181</v>
+        <v>267</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>287</v>
+        <v>107</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>289</v>
+        <v>268</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>114</v>
+        <v>269</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>74</v>
+        <v>270</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>290</v>
+        <v>99</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>291</v>
+        <v>100</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>115</v>
+        <v>272</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>75</v>
+        <v>273</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>170</v>
+        <v>274</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>177</v>
+        <v>275</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>170</v>
+        <v>276</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>170</v>
+        <v>277</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>179</v>
+        <v>278</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>171</v>
+        <v>279</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>246</v>
+        <v>283</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>116</v>
+        <v>284</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>85</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>117</v>
+        <v>287</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>156</v>
+        <v>288</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>93</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>286</v>
+        <v>291</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>36</v>
+        <v>292</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>123</v>
+        <v>295</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>278</v>
+        <v>169</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>271</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="5"/>
     </row>
     <row r="63" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>155</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
@@ -2443,37 +2211,19 @@
       <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>295</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="5"/>
     </row>
     <row r="69" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>296</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="5"/>
     </row>
     <row r="70" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>280</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="4"/>
     </row>
     <row r="71" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
@@ -2481,15 +2231,9 @@
       <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>276</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
@@ -2498,128 +2242,128 @@
     </row>
     <row r="74" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>302</v>
+        <v>27</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>303</v>
+        <v>28</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>303</v>
+        <v>28</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>304</v>
+        <v>29</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>304</v>
+        <v>29</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>304</v>
+        <v>30</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>304</v>
+        <v>30</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>305</v>
+        <v>112</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>305</v>
+        <v>109</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2629,200 +2373,200 @@
     </row>
     <row r="84" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>294</v>
+        <v>188</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>306</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>306</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>306</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>307</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>306</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>240</v>
+        <v>158</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>307</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>230</v>
+        <v>148</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>307</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>230</v>
+        <v>148</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>307</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>308</v>
+        <v>34</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>308</v>
+        <v>35</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2832,100 +2576,100 @@
     </row>
     <row r="100" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>319</v>
+        <v>213</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>320</v>
+        <v>214</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>309</v>
+        <v>215</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>309</v>
+        <v>156</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>293</v>
+        <v>187</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>310</v>
+        <v>113</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>209</v>
+        <v>127</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>310</v>
+        <v>113</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>309</v>
+        <v>149</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" s="7" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>311</v>
+        <v>150</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2935,316 +2679,451 @@
     </row>
     <row r="108" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>306</v>
+        <v>41</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>318</v>
+        <v>42</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>318</v>
+        <v>42</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>318</v>
+        <v>43</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>318</v>
+        <v>43</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>318</v>
+        <v>151</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>318</v>
+        <v>152</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>318</v>
+        <v>152</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>221</v>
+        <v>139</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>318</v>
+        <v>153</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>222</v>
+        <v>140</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>318</v>
+        <v>153</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>225</v>
+        <v>143</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>305</v>
+        <v>154</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>227</v>
+        <v>145</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>305</v>
+        <v>155</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="7" t="s">
-        <v>299</v>
+      <c r="A123" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>312</v>
+        <v>209</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="7" t="s">
-        <v>300</v>
+      <c r="A124" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>312</v>
+        <v>210</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="7" t="s">
-        <v>301</v>
+      <c r="A125" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>312</v>
+        <v>211</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="7" t="s">
-        <v>314</v>
+      <c r="A126" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>306</v>
+        <v>207</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="7" t="s">
-        <v>297</v>
+      <c r="A127" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>306</v>
+        <v>192</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="9"/>
-      <c r="B128" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
+      <c r="A128" s="8"/>
+      <c r="B128" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+    </row>
+    <row r="130" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D184" s="1"/>
+    </row>
+    <row r="185" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D185" s="1"/>
+    </row>
+    <row r="186" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D186" s="1"/>
+    </row>
+    <row r="187" spans="4:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D187" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A32 A7">
-    <cfRule type="duplicateValues" dxfId="21" priority="37" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="20" priority="24" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="19" priority="23" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="18" priority="22" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="17" priority="21" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="16" priority="18" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="15" priority="17" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="14" priority="16" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29 A8 A27 A6">
-    <cfRule type="duplicateValues" dxfId="13" priority="62" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="12" priority="14" stopIfTrue="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="11" priority="12" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="14" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="duplicateValues" dxfId="10" priority="11" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="13" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="9" priority="10" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="12" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="8" priority="9" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57">
-    <cfRule type="duplicateValues" dxfId="7" priority="8" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="11" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="6" priority="7" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="5" priority="5" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="4" priority="4" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="3" priority="3" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:A99 A1:A5 A9:A13 A33:A35 A19:A23 A25 A46:A49 A63:A65 A61 A67 A73:A80 A58:A59 A71 A51:A56 A38:A44 A101:A120 A15:A16">
-    <cfRule type="duplicateValues" dxfId="2" priority="64" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="9" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="1" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
+  <conditionalFormatting sqref="B1:B58">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A58">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82:A99 A63:A65 A61 A67 A73:A80 A59 A71 A101:A120">
+    <cfRule type="duplicateValues" dxfId="0" priority="67" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3267,18 +3146,18 @@
   <sheetData>
     <row r="5" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F924F216-3A97-9C45-A1AB-1358210E0A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFBB595-7776-0C4E-9D36-6980B2D24F3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="2300" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,9 +202,6 @@
     <t>dell-i3493s</t>
   </si>
   <si>
-    <t>dell-i5593</t>
-  </si>
-  <si>
     <t>lenovo-s340</t>
   </si>
   <si>
@@ -841,15 +838,9 @@
     <t>Dell - Inspiron 15,6" Laptop - Intel Core i5 - Memoria 8Gb - SSD 256GB</t>
   </si>
   <si>
-    <t>dell-i3593</t>
-  </si>
-  <si>
     <t>Dell - Inspiron 15,6" Laptop - Intel Core i7 - Memoria 16Gb - HD 2TB - Video MX 4GB</t>
   </si>
   <si>
-    <t>dell-I3593</t>
-  </si>
-  <si>
     <t>Dell - Inspiron 15,6" Laptop - Intel Core i7 - Memoria 8Gb - HD 1TB + SSD 256GB - Video MX 4GB</t>
   </si>
   <si>
@@ -913,9 +904,6 @@
     <t>Lenovo - Ideapad S145 15,6" Laptop - Intel Core i3 - Memoria 4Gb - SSD 128GB</t>
   </si>
   <si>
-    <t>lenovo-s145</t>
-  </si>
-  <si>
     <t>Lenovo - Legion 5 15,6" Gaming Laptop - Intel Core i7 - Memoria 8Gb - SSD 512GB - Video GTX 6GB</t>
   </si>
   <si>
@@ -971,6 +959,18 @@
   </si>
   <si>
     <t>MSI - GS65 15,6" Gaming Laptop - Intel Core i7 - Memoria 32Gb - SSD 512GB - Video RTX 6GB</t>
+  </si>
+  <si>
+    <t>dell-I3593s</t>
+  </si>
+  <si>
+    <t>dell-i5593s</t>
+  </si>
+  <si>
+    <t>lenovo-g3</t>
+  </si>
+  <si>
+    <t>lenovo-s145-15</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1087,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1515,7 +1535,7 @@
   <dimension ref="A1:D187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+      <selection sqref="A1:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1527,251 +1547,273 @@
     <col min="5" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
@@ -1779,418 +1821,454 @@
       <c r="C23" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B51" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="5"/>
     </row>
-    <row r="63" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2242,7 +2320,7 @@
     </row>
     <row r="74" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>0</v>
@@ -2251,12 +2329,12 @@
         <v>27</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>1</v>
@@ -2265,12 +2343,12 @@
         <v>28</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>2</v>
@@ -2279,12 +2357,12 @@
         <v>28</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>3</v>
@@ -2293,12 +2371,12 @@
         <v>29</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>4</v>
@@ -2307,12 +2385,12 @@
         <v>29</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>5</v>
@@ -2321,12 +2399,12 @@
         <v>30</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>6</v>
@@ -2335,35 +2413,35 @@
         <v>30</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="D82" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2373,35 +2451,35 @@
     </row>
     <row r="84" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>7</v>
@@ -2410,26 +2488,26 @@
         <v>32</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="C87" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>8</v>
@@ -2438,68 +2516,68 @@
         <v>33</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="C89" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="C91" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="C92" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>9</v>
@@ -2508,12 +2586,12 @@
         <v>34</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>10</v>
@@ -2522,12 +2600,12 @@
         <v>35</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>11</v>
@@ -2538,7 +2616,7 @@
     </row>
     <row r="96" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>12</v>
@@ -2549,7 +2627,7 @@
     </row>
     <row r="97" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>13</v>
@@ -2560,7 +2638,7 @@
     </row>
     <row r="98" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>14</v>
@@ -2576,77 +2654,77 @@
     </row>
     <row r="100" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="D100" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="C103" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="C104" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>16</v>
@@ -2655,21 +2733,21 @@
         <v>40</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="7" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="C106" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2679,7 +2757,7 @@
     </row>
     <row r="108" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>17</v>
@@ -2688,12 +2766,12 @@
         <v>41</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>18</v>
@@ -2702,12 +2780,12 @@
         <v>42</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>19</v>
@@ -2716,12 +2794,12 @@
         <v>42</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>20</v>
@@ -2730,12 +2808,12 @@
         <v>43</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>21</v>
@@ -2744,180 +2822,180 @@
         <v>43</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="C113" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="C114" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="C115" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="C116" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="C117" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="C118" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="C119" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="C120" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="D127" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
       <c r="B128" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -3099,31 +3177,31 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="8" priority="14" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="18" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="duplicateValues" dxfId="7" priority="13" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="17" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="6" priority="12" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="16" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="5" priority="11" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="15" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="4" priority="9" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="13" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="3" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82:A99 A63:A65 A61 A67 A73:A80 A59 A71 A101:A120">
+    <cfRule type="duplicateValues" dxfId="4" priority="71" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B58">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A58">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:A99 A63:A65 A61 A67 A73:A80 A59 A71 A101:A120">
-    <cfRule type="duplicateValues" dxfId="0" priority="67" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3146,18 +3224,18 @@
   <sheetData>
     <row r="5" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
         <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamil/Documents/GitHub/itc_productos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFBB595-7776-0C4E-9D36-6980B2D24F3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFC058B-0AAC-844D-838A-EBDD3CAD6E00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="2300" windowWidth="23780" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -715,9 +715,6 @@
     <t>Dell - Inspiron 15,6" Touch Laptop - Intel Core i7 - Memoria 16Gb - SSD 512GB - Video MX 2GB</t>
   </si>
   <si>
-    <t>dell-I5501</t>
-  </si>
-  <si>
     <t>producto_100240</t>
   </si>
   <si>
@@ -850,9 +847,6 @@
     <t>Dell - Latitud 14" Laptop - Intel Core i3 - Memoria 4GB - HD 1TB</t>
   </si>
   <si>
-    <t>dell-i3410</t>
-  </si>
-  <si>
     <t>Lenovo - 21.5" AIO - AMD A6 - Memoria 4Gb - HD 1TB</t>
   </si>
   <si>
@@ -971,6 +965,12 @@
   </si>
   <si>
     <t>lenovo-s145-15</t>
+  </si>
+  <si>
+    <t>dell-i5501</t>
+  </si>
+  <si>
+    <t>dell-l3410</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1044,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1052,11 +1052,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1083,31 +1092,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1534,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:D58"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1549,13 +1541,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -1564,7 +1556,7 @@
         <v>175</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>188</v>
@@ -1585,13 +1577,13 @@
     </row>
     <row r="4" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -1600,7 +1592,7 @@
         <v>166</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>167</v>
@@ -1609,13 +1601,13 @@
     </row>
     <row r="6" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -1624,7 +1616,7 @@
         <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>26</v>
@@ -1636,7 +1628,7 @@
         <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
@@ -1648,7 +1640,7 @@
         <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>158</v>
@@ -1660,7 +1652,7 @@
         <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>159</v>
@@ -1681,13 +1673,13 @@
     </row>
     <row r="12" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1705,13 +1697,13 @@
     </row>
     <row r="14" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1729,25 +1721,25 @@
     </row>
     <row r="16" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -1756,7 +1748,7 @@
         <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>51</v>
@@ -1765,25 +1757,25 @@
     </row>
     <row r="19" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -1792,10 +1784,10 @@
         <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -1807,7 +1799,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D22" s="1"/>
     </row>
@@ -1825,10 +1817,10 @@
     </row>
     <row r="24" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>163</v>
@@ -1837,10 +1829,10 @@
     </row>
     <row r="25" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>163</v>
@@ -1849,10 +1841,10 @@
     </row>
     <row r="26" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>163</v>
@@ -1876,10 +1868,10 @@
         <v>165</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D28" s="1"/>
     </row>
@@ -1888,34 +1880,34 @@
         <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>261</v>
+      <c r="C31" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="D31" s="1"/>
     </row>
@@ -1936,7 +1928,7 @@
         <v>103</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>101</v>
@@ -1948,7 +1940,7 @@
         <v>104</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>101</v>
@@ -1960,7 +1952,7 @@
         <v>105</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>101</v>
@@ -1972,7 +1964,7 @@
         <v>106</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>102</v>
@@ -1981,13 +1973,13 @@
     </row>
     <row r="37" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="D37" s="1"/>
     </row>
@@ -2005,10 +1997,10 @@
     </row>
     <row r="39" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>161</v>
@@ -2020,7 +2012,7 @@
         <v>64</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>45</v>
@@ -2029,13 +2021,13 @@
     </row>
     <row r="41" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D41" s="1"/>
     </row>
@@ -2044,7 +2036,7 @@
         <v>160</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>161</v>
@@ -2053,10 +2045,10 @@
     </row>
     <row r="43" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>161</v>
@@ -2065,13 +2057,13 @@
     </row>
     <row r="44" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D44" s="1"/>
     </row>
@@ -2080,7 +2072,7 @@
         <v>184</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>185</v>
@@ -2089,25 +2081,25 @@
     </row>
     <row r="46" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="D47" s="1"/>
     </row>
@@ -2128,7 +2120,7 @@
         <v>68</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>46</v>
@@ -2140,7 +2132,7 @@
         <v>69</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>46</v>
@@ -2152,7 +2144,7 @@
         <v>174</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>46</v>
@@ -2164,7 +2156,7 @@
         <v>70</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>48</v>
@@ -2176,7 +2168,7 @@
         <v>170</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>48</v>
@@ -2185,10 +2177,10 @@
     </row>
     <row r="54" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>97</v>
@@ -2200,7 +2192,7 @@
         <v>71</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>97</v>
@@ -2209,10 +2201,10 @@
     </row>
     <row r="56" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>97</v>
@@ -2224,7 +2216,7 @@
         <v>168</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>169</v>
@@ -2236,7 +2228,7 @@
         <v>72</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>47</v>
@@ -3177,25 +3169,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="10" priority="18" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="18" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="duplicateValues" dxfId="9" priority="17" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="17" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="8" priority="16" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="16" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="7" priority="15" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="15" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="6" priority="13" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="13" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="5" priority="8" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="8" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:A99 A63:A65 A61 A67 A73:A80 A59 A71 A101:A120">
-    <cfRule type="duplicateValues" dxfId="4" priority="71" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="71" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B58">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
